--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\Documents\GitHub\protocol_labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D09ECA-40A8-4063-B2BB-8925D629F44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6FC33B-0EB9-4BD4-BE66-2D47BDCDDCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="1260" windowWidth="28800" windowHeight="15435" xr2:uid="{33E7452A-8A39-4730-96DE-1DB5A0611CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Field</t>
   </si>
@@ -113,6 +114,24 @@
   </si>
   <si>
     <t>mean_gas_burned</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A*B</t>
+  </si>
+  <si>
+    <t>A*B != AvgA * AvgB</t>
+  </si>
+  <si>
+    <t>[10 27 50] != [8 25 48]</t>
   </si>
 </sst>
 </file>
@@ -821,4 +840,233 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DE859E-6D90-487B-9D41-972F967CAA02}">
+  <dimension ref="C10:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(C12:E12)</f>
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGE(H12:J12)</f>
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <f>C12*H12</f>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f>D12*I12</f>
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <f>E12*J12</f>
+        <v>21</v>
+      </c>
+      <c r="P12">
+        <f>AVERAGE(M12:O12)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(C13:E13)</f>
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGE(H13:J13)</f>
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <f>C13*H13</f>
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <f>D13*I13</f>
+        <v>25</v>
+      </c>
+      <c r="O13">
+        <f>E13*J13</f>
+        <v>48</v>
+      </c>
+      <c r="P13">
+        <f>AVERAGE(M13:O13)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGE(C14:E14)</f>
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGE(H14:J14)</f>
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <f>C14*H14</f>
+        <v>21</v>
+      </c>
+      <c r="N14">
+        <f>D14*I14</f>
+        <v>48</v>
+      </c>
+      <c r="O14">
+        <f>E14*J14</f>
+        <v>81</v>
+      </c>
+      <c r="P14">
+        <f>AVERAGE(M14:O14)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>AVERAGE(C12:E12)</f>
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(H12:J12)</f>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f>C17*D17</f>
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGE(M12:O12)</f>
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>AVERAGE(C13:E13)</f>
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(H13:J13)</f>
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <f>C18*D18</f>
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <f>AVERAGE(M13:O13)</f>
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>AVERAGE(C14:E14)</f>
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(H14:J14)</f>
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <f>C19*D19</f>
+        <v>48</v>
+      </c>
+      <c r="F19">
+        <f>AVERAGE(M14:O14)</f>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>